--- a/File_Excel/commenti_hS_per_topic.xlsx
+++ b/File_Excel/commenti_hS_per_topic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CRONACA</t>
+          <t>CROANCA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1166</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +515,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>908</v>
+        <v>1058</v>
       </c>
       <c r="F4" t="n">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -540,45 +540,45 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>1046</v>
+        <v>939</v>
       </c>
       <c r="F5" t="n">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CRONACA NERA</t>
+          <t>CRONACA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>892</v>
+        <v>1093</v>
       </c>
       <c r="F6" t="n">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -590,20 +590,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>829</v>
+        <v>1014</v>
       </c>
       <c r="F7" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -615,42 +615,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="F8" t="n">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POLITICA</t>
+          <t>CRONACA NERA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>1037</v>
+        <v>1117</v>
       </c>
       <c r="F9" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -665,20 +665,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>936</v>
+        <v>1111</v>
       </c>
       <c r="F10" t="n">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -690,19 +690,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>145</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POLITICA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>22</v>
-      </c>
-      <c r="E11" t="n">
-        <v>995</v>
-      </c>
-      <c r="F11" t="n">
-        <v>59</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="D12" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1104</v>
+      </c>
+      <c r="F12" t="n">
+        <v>68</v>
+      </c>
+      <c r="G12" t="n">
         <v>2</v>
       </c>
     </row>

--- a/File_Excel/commenti_hS_per_topic.xlsx
+++ b/File_Excel/commenti_hS_per_topic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CROANCA</t>
+          <t>CRONACA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1093</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85</v>
+      </c>
+      <c r="G3" t="n">
         <v>3</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -515,20 +515,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>1058</v>
+        <v>995</v>
       </c>
       <c r="F4" t="n">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -540,45 +540,45 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>939</v>
+        <v>1101</v>
       </c>
       <c r="F5" t="n">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CRONACA</t>
+          <t>CRONACA NERA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>1093</v>
+        <v>1014</v>
       </c>
       <c r="F6" t="n">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -590,20 +590,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="F7" t="n">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -615,42 +615,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>996</v>
+        <v>1117</v>
       </c>
       <c r="F8" t="n">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRONACA NERA</t>
+          <t>POLITICA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F9" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" t="n">
         <v>5</v>
@@ -665,20 +665,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="F10" t="n">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -690,44 +690,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>1001</v>
+        <v>1104</v>
       </c>
       <c r="F11" t="n">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>POLITICA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1104</v>
-      </c>
-      <c r="F12" t="n">
-        <v>68</v>
-      </c>
-      <c r="G12" t="n">
         <v>2</v>
       </c>
     </row>

--- a/File_Excel/commenti_hS_per_topic.xlsx
+++ b/File_Excel/commenti_hS_per_topic.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roby/PycharmProjects/RetiGeografiche/File_Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009E579-EAD5-0542-A973-9AD5ACA9B11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>inappropriato</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>offensivo</t>
+  </si>
+  <si>
+    <t>violento</t>
+  </si>
+  <si>
+    <t>Commenti hate speech per ogni topic per social suddivisi per categoria di odio</t>
+  </si>
+  <si>
+    <t>CRONACA</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>CRONACA NERA</t>
+  </si>
+  <si>
+    <t>POLITICA</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +105,104 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79EEAF43-D020-D04E-B28F-202DBADA0D65}" name="Tabella1" displayName="Tabella1" ref="A1:G11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:G11" xr:uid="{79EEAF43-D020-D04E-B28F-202DBADA0D65}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{673C0E66-BE9B-1B4D-B4EE-C14F2045AFE1}" name="Descrizione"/>
+    <tableColumn id="2" xr3:uid="{9389EC7B-73B5-6542-9A0F-1DE6A506321D}" name="topic"/>
+    <tableColumn id="3" xr3:uid="{53444FB4-A152-974D-A368-722A900525B1}" name="social"/>
+    <tableColumn id="4" xr3:uid="{394377FE-5C14-C045-A6DB-ED2760F1428A}" name="inappropriato"/>
+    <tableColumn id="5" xr3:uid="{479E4C87-C096-9644-8FA0-025E5ACED3C4}" name="no"/>
+    <tableColumn id="6" xr3:uid="{003B94A2-110A-C34E-9C4B-4739FC2D5C94}" name="offensivo"/>
+    <tableColumn id="7" xr3:uid="{C933868E-1368-4C42-8265-C8A5F02F7C05}" name="violento"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,293 +489,235 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="67.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>social</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>inappropriato</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>offensivo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>violento</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Commenti hate speech per ogni topic per social suddivisi per categoria di odio</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CRONACA</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1096</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>86</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CRONACA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>996</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>181</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CRONACA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1111</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>78</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CRONACA NERA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1014</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>150</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CRONACA NERA</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>998</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>168</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CRONACA NERA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1117</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>66</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>POLITICA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1112</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>69</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>POLITICA</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>38</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1009</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>145</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>POLITICA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1109</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>68</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>